--- a/biology/Zoologie/Acanthostichus_davisi/Acanthostichus_davisi.xlsx
+++ b/biology/Zoologie/Acanthostichus_davisi/Acanthostichus_davisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthostichus davisi est une espèce de fourmis nord-américaines de la sous-famille des Cerapachyinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Acanthostichus davisi a été initialement décrite en 1942 par la myrmécologue américaine Marion Russell Smith (d) (1894-1981) sous le protonyme de Cerapachys (Parasyscia) davisi[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Acanthostichus davisi a été initialement décrite en 1942 par la myrmécologue américaine Marion Russell Smith (d) (1894-1981) sous le protonyme de Cerapachys (Parasyscia) davisi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de sa description, Marion Russell Smith indique que les quatre spécimens en sa possession proviennent de fort Davis au Texas[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description, Marion Russell Smith indique que les quatre spécimens en sa possession proviennent de fort Davis au Texas.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécimens analysés par Marion Russell Smith en 1942 mesuraient entre 3,8 et 4,2 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens analysés par Marion Russell Smith en 1942 mesuraient entre 3,8 et 4,2 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, davisi, fait référence à sa localité type, le fort Davis au Texas[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, davisi, fait référence à sa localité type, le fort Davis au Texas.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Marion R. Smith, « The males of two North American Cerapachyirie ants », Proceedings of the Entomological Society of Washington, Washington, Entomological Society of Washington (d), vol. 44,‎ 1942, p. 62-64 (ISSN 0013-8797 et 2378-6477, OCLC 630167895 et 1568029, lire en ligne)</t>
         </is>
